--- a/Code/Results/Cases/Case_2_160/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_160/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.30698868739325</v>
+        <v>18.83950662777261</v>
       </c>
       <c r="C2">
-        <v>14.20173221032558</v>
+        <v>9.699123079810191</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.29833467349018</v>
+        <v>14.43083828962585</v>
       </c>
       <c r="F2">
-        <v>28.22102443497272</v>
+        <v>38.78817939157862</v>
       </c>
       <c r="G2">
-        <v>31.06696881548291</v>
+        <v>37.80507229859841</v>
       </c>
       <c r="H2">
-        <v>10.34373653461405</v>
+        <v>16.44182488177383</v>
       </c>
       <c r="I2">
-        <v>15.56879859564882</v>
+        <v>25.3368332873355</v>
       </c>
       <c r="J2">
-        <v>4.971201565292901</v>
+        <v>8.014051268546291</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.954385759148337</v>
+        <v>12.8381308817174</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.64347115083432</v>
+        <v>18.27168214458624</v>
       </c>
       <c r="C3">
-        <v>13.38383288394212</v>
+        <v>9.314517981662007</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.269289483478612</v>
+        <v>14.44789008494764</v>
       </c>
       <c r="F3">
-        <v>27.55260913621875</v>
+        <v>38.83513334338183</v>
       </c>
       <c r="G3">
-        <v>30.15344115676937</v>
+        <v>37.86096500995178</v>
       </c>
       <c r="H3">
-        <v>10.34619346127071</v>
+        <v>16.51038522740477</v>
       </c>
       <c r="I3">
-        <v>15.76872170726455</v>
+        <v>25.48689780785287</v>
       </c>
       <c r="J3">
-        <v>5.032286822557282</v>
+        <v>8.03311775498371</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.643810887846435</v>
+        <v>12.80276705270379</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.56345303831424</v>
+        <v>17.91632557647129</v>
       </c>
       <c r="C4">
-        <v>12.8576809474092</v>
+        <v>9.068318746583692</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.25381168229706</v>
+        <v>14.45957340809967</v>
       </c>
       <c r="F4">
-        <v>27.16660534624353</v>
+        <v>38.8752462922676</v>
       </c>
       <c r="G4">
-        <v>29.63673904943684</v>
+        <v>37.91224727598833</v>
       </c>
       <c r="H4">
-        <v>10.36028547977274</v>
+        <v>16.55655223207637</v>
       </c>
       <c r="I4">
-        <v>15.91331927701353</v>
+        <v>25.58590765777046</v>
       </c>
       <c r="J4">
-        <v>5.070674179590083</v>
+        <v>8.045443115289366</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.45078247211781</v>
+        <v>12.7826101563789</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.10847538971651</v>
+        <v>17.77004374688135</v>
       </c>
       <c r="C5">
-        <v>12.63728714402185</v>
+        <v>8.965550215830758</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.248089556881846</v>
+        <v>14.46464021746733</v>
       </c>
       <c r="F5">
-        <v>27.0154653503668</v>
+        <v>38.89442112168817</v>
       </c>
       <c r="G5">
-        <v>29.43725048733262</v>
+        <v>37.9373823618694</v>
       </c>
       <c r="H5">
-        <v>10.36902739961161</v>
+        <v>16.57638575029594</v>
       </c>
       <c r="I5">
-        <v>15.97737598166401</v>
+        <v>25.62797706989208</v>
       </c>
       <c r="J5">
-        <v>5.086548804801916</v>
+        <v>8.050621851208033</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.371634609425623</v>
+        <v>12.77479249283928</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.03202557321002</v>
+        <v>17.74567152563751</v>
       </c>
       <c r="C6">
-        <v>12.60033128167209</v>
+        <v>8.948340958002149</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.247174535246394</v>
+        <v>14.46550004271552</v>
       </c>
       <c r="F6">
-        <v>26.99074096078685</v>
+        <v>38.89777563676509</v>
       </c>
       <c r="G6">
-        <v>29.40479182270746</v>
+        <v>37.94181103129729</v>
       </c>
       <c r="H6">
-        <v>10.37065535449255</v>
+        <v>16.5797405983105</v>
       </c>
       <c r="I6">
-        <v>15.98831242615532</v>
+        <v>25.63506652027088</v>
       </c>
       <c r="J6">
-        <v>5.089199036679412</v>
+        <v>8.051491217228723</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.358465845938445</v>
+        <v>12.77351845982803</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.5573773847667</v>
+        <v>17.91435842824095</v>
       </c>
       <c r="C7">
-        <v>12.85473279013635</v>
+        <v>9.066942531695938</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.253732151804247</v>
+        <v>14.45964050201226</v>
       </c>
       <c r="F7">
-        <v>27.16454206381815</v>
+        <v>38.87549345103287</v>
       </c>
       <c r="G7">
-        <v>29.63400394904411</v>
+        <v>37.91256914107542</v>
       </c>
       <c r="H7">
-        <v>10.36039144880584</v>
+        <v>16.55681558826062</v>
       </c>
       <c r="I7">
-        <v>15.91416284783096</v>
+        <v>25.58646805492252</v>
       </c>
       <c r="J7">
-        <v>5.070887320293698</v>
+        <v>8.045512324989041</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.449716890088546</v>
+        <v>12.78250311309023</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.74549721115574</v>
+        <v>18.64523827232014</v>
       </c>
       <c r="C8">
-        <v>13.92471099010888</v>
+        <v>9.568645696234393</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.287826507404352</v>
+        <v>14.43646627549446</v>
       </c>
       <c r="F8">
-        <v>27.98550841311383</v>
+        <v>38.80202250125284</v>
       </c>
       <c r="G8">
-        <v>30.74279878842884</v>
+        <v>37.82080717839803</v>
       </c>
       <c r="H8">
-        <v>10.34187230570164</v>
+        <v>16.46461751797581</v>
       </c>
       <c r="I8">
-        <v>15.6329737517641</v>
+        <v>25.38714651358355</v>
       </c>
       <c r="J8">
-        <v>4.992087143416557</v>
+        <v>8.020497353421764</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.847840720737409</v>
+        <v>12.82561744233203</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.57711618649866</v>
+        <v>20.01655544115571</v>
       </c>
       <c r="C9">
-        <v>15.83217545382617</v>
+        <v>10.46949251705491</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.37371565185898</v>
+        <v>14.40062237305043</v>
       </c>
       <c r="F9">
-        <v>29.78740826226822</v>
+        <v>38.74779868166156</v>
       </c>
       <c r="G9">
-        <v>33.26763789320481</v>
+        <v>37.77655931372693</v>
       </c>
       <c r="H9">
-        <v>10.41283110421407</v>
+        <v>16.31627216988151</v>
       </c>
       <c r="I9">
-        <v>15.27230829574392</v>
+        <v>25.05102654293668</v>
       </c>
       <c r="J9">
-        <v>4.844067789982516</v>
+        <v>7.976325986459259</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.606195504555922</v>
+        <v>12.92228456170398</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.12061074562673</v>
+        <v>20.97580124398428</v>
       </c>
       <c r="C10">
-        <v>17.117905813858</v>
+        <v>11.07711177478106</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.448908899453913</v>
+        <v>14.38010381159231</v>
       </c>
       <c r="F10">
-        <v>31.22580646507006</v>
+        <v>38.76308839701899</v>
       </c>
       <c r="G10">
-        <v>35.33434762372787</v>
+        <v>37.82799855794583</v>
       </c>
       <c r="H10">
-        <v>10.54055047098849</v>
+        <v>16.22727920835938</v>
       </c>
       <c r="I10">
-        <v>15.14930448614174</v>
+        <v>24.83779161832284</v>
       </c>
       <c r="J10">
-        <v>4.738567873152462</v>
+        <v>7.946816182886926</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.14537398242637</v>
+        <v>13.0003689945954</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.22068623982004</v>
+        <v>21.39980876027322</v>
       </c>
       <c r="C11">
-        <v>17.67819689022244</v>
+        <v>11.34116513756179</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.485856188164417</v>
+        <v>14.37202427645658</v>
       </c>
       <c r="F11">
-        <v>31.90459149132541</v>
+        <v>38.78205585810753</v>
       </c>
       <c r="G11">
-        <v>36.32003872182133</v>
+        <v>37.86980017860772</v>
       </c>
       <c r="H11">
-        <v>10.61724231097782</v>
+        <v>16.19118044681542</v>
       </c>
       <c r="I11">
-        <v>15.13018503693647</v>
+        <v>24.74818069610386</v>
       </c>
       <c r="J11">
-        <v>4.691106684828192</v>
+        <v>7.93402325517472</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.38606327448119</v>
+        <v>13.03735031648044</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.62923342437626</v>
+        <v>21.55845483238572</v>
       </c>
       <c r="C12">
-        <v>17.88688890930577</v>
+        <v>11.43933880733508</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.500251527165974</v>
+        <v>14.36914447402175</v>
       </c>
       <c r="F12">
-        <v>32.16512435862066</v>
+        <v>38.7909661035754</v>
       </c>
       <c r="G12">
-        <v>36.69982717242937</v>
+        <v>37.88828251761252</v>
       </c>
       <c r="H12">
-        <v>10.64913441501549</v>
+        <v>16.17814489077865</v>
       </c>
       <c r="I12">
-        <v>15.12876458690799</v>
+        <v>24.71531669199151</v>
       </c>
       <c r="J12">
-        <v>4.673195305319114</v>
+        <v>7.929269131832976</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.47650366258368</v>
+        <v>13.05155737182338</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.54159976036639</v>
+        <v>21.52437485563659</v>
       </c>
       <c r="C13">
-        <v>17.84209693856868</v>
+        <v>11.41827677212765</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.497133087079417</v>
+        <v>14.36975670736636</v>
       </c>
       <c r="F13">
-        <v>32.10885878028901</v>
+        <v>38.78897029704609</v>
       </c>
       <c r="G13">
-        <v>36.61774241706083</v>
+        <v>37.88418396418582</v>
       </c>
       <c r="H13">
-        <v>10.64213628969069</v>
+        <v>16.18092406278949</v>
       </c>
       <c r="I13">
-        <v>15.12880318536766</v>
+        <v>24.7223468559103</v>
       </c>
       <c r="J13">
-        <v>4.677050378027483</v>
+        <v>7.930289009833673</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.45705757473318</v>
+        <v>13.0484887117658</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.25445756230819</v>
+        <v>21.4128998207766</v>
       </c>
       <c r="C14">
-        <v>17.69543542301124</v>
+        <v>11.34927858322717</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.487032339969014</v>
+        <v>14.3717837548278</v>
       </c>
       <c r="F14">
-        <v>31.92595576281794</v>
+        <v>38.78275428838749</v>
       </c>
       <c r="G14">
-        <v>36.3511532614027</v>
+        <v>37.87126753962335</v>
       </c>
       <c r="H14">
-        <v>10.61980795279803</v>
+        <v>16.1900952708991</v>
       </c>
       <c r="I14">
-        <v>15.12994849047372</v>
+        <v>24.74545547598927</v>
       </c>
       <c r="J14">
-        <v>4.689631971186365</v>
+        <v>7.933630324012266</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.39351817001763</v>
+        <v>13.03851511114527</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.07753433552984</v>
+        <v>21.34436469184922</v>
       </c>
       <c r="C15">
-        <v>17.60515006716402</v>
+        <v>11.30677739154523</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.48089829212114</v>
+        <v>14.37304876824004</v>
       </c>
       <c r="F15">
-        <v>31.81437678564107</v>
+        <v>38.77917177865104</v>
       </c>
       <c r="G15">
-        <v>36.18871007036597</v>
+        <v>37.86370147547723</v>
       </c>
       <c r="H15">
-        <v>10.6065076701841</v>
+        <v>16.19579561087152</v>
       </c>
       <c r="I15">
-        <v>15.13142370324123</v>
+        <v>24.75974968856881</v>
       </c>
       <c r="J15">
-        <v>4.697346049489143</v>
+        <v>7.935688718200347</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.35450572626696</v>
+        <v>13.03243222276537</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.04758565931313</v>
+        <v>20.94783043377668</v>
       </c>
       <c r="C16">
-        <v>17.08079922917004</v>
+        <v>11.05960299417577</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.446550305308488</v>
+        <v>14.38065701607261</v>
       </c>
       <c r="F16">
-        <v>31.18193569287554</v>
+        <v>38.7620906137881</v>
       </c>
       <c r="G16">
-        <v>35.2708441197622</v>
+        <v>37.82563770250306</v>
       </c>
       <c r="H16">
-        <v>10.53592775311943</v>
+        <v>16.22972689950048</v>
       </c>
       <c r="I16">
-        <v>15.15133952180211</v>
+        <v>24.84379721227906</v>
       </c>
       <c r="J16">
-        <v>4.741678987228518</v>
+        <v>7.94766489081448</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.12954808070134</v>
+        <v>12.99798097413437</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.40126759592134</v>
+        <v>20.70130046405679</v>
       </c>
       <c r="C17">
-        <v>16.75286457329256</v>
+        <v>10.90477372166385</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.426187910278879</v>
+        <v>14.3856452700765</v>
       </c>
       <c r="F17">
-        <v>30.80019189059378</v>
+        <v>38.75468927350362</v>
       </c>
       <c r="G17">
-        <v>34.71939998141558</v>
+        <v>37.80700625132049</v>
       </c>
       <c r="H17">
-        <v>10.49751736619175</v>
+        <v>16.25166834030726</v>
       </c>
       <c r="I17">
-        <v>15.17335823586121</v>
+        <v>24.89725547292985</v>
       </c>
       <c r="J17">
-        <v>4.769001398137082</v>
+        <v>7.955173208167174</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.990334518520969</v>
+        <v>12.97721539735589</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.02414950714878</v>
+        <v>20.5583470924232</v>
       </c>
       <c r="C18">
-        <v>16.56192583065343</v>
+        <v>10.81455903941802</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.41473339754387</v>
+        <v>14.38863249718666</v>
       </c>
       <c r="F18">
-        <v>30.58292469082983</v>
+        <v>38.75156294466295</v>
       </c>
       <c r="G18">
-        <v>34.40650913401502</v>
+        <v>37.79802186814121</v>
       </c>
       <c r="H18">
-        <v>10.47716414057243</v>
+        <v>16.26470095320885</v>
       </c>
       <c r="I18">
-        <v>15.18945747780402</v>
+        <v>24.9286984765677</v>
       </c>
       <c r="J18">
-        <v>4.784767511998981</v>
+        <v>7.959551237034238</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.909832857366176</v>
+        <v>12.9654094717428</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.89553611680473</v>
+        <v>20.50975150462707</v>
       </c>
       <c r="C19">
-        <v>16.49687736294971</v>
+        <v>10.78381585271293</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.410899015408571</v>
+        <v>14.38966422692511</v>
       </c>
       <c r="F19">
-        <v>30.50975817083102</v>
+        <v>38.75069858674074</v>
       </c>
       <c r="G19">
-        <v>34.30130687726855</v>
+        <v>37.79527708730294</v>
       </c>
       <c r="H19">
-        <v>10.4705662206233</v>
+        <v>16.26918429948992</v>
       </c>
       <c r="I19">
-        <v>15.19548265907148</v>
+        <v>24.93946373403946</v>
       </c>
       <c r="J19">
-        <v>4.790114849401871</v>
+        <v>7.961043786810171</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.882504098433866</v>
+        <v>12.96143607814768</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.47062418285185</v>
+        <v>20.7276646823406</v>
       </c>
       <c r="C20">
-        <v>16.78801345148136</v>
+        <v>10.92137603575007</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.428328812909182</v>
+        <v>14.38510204208537</v>
       </c>
       <c r="F20">
-        <v>30.84059119629969</v>
+        <v>38.75536012496088</v>
       </c>
       <c r="G20">
-        <v>34.77765891296828</v>
+        <v>37.80881028852183</v>
       </c>
       <c r="H20">
-        <v>10.50142490869599</v>
+        <v>16.24928991939861</v>
       </c>
       <c r="I20">
-        <v>15.17065509750761</v>
+        <v>24.89149274701571</v>
       </c>
       <c r="J20">
-        <v>4.766087710674775</v>
+        <v>7.954367786400454</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.00519886631642</v>
+        <v>12.97941170754887</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.3390146819833</v>
+        <v>21.4456957878715</v>
       </c>
       <c r="C21">
-        <v>17.73860731497219</v>
+        <v>11.3695946469766</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.489988120008052</v>
+        <v>14.37118348892337</v>
       </c>
       <c r="F21">
-        <v>31.97958412463019</v>
+        <v>38.78453319806962</v>
       </c>
       <c r="G21">
-        <v>36.42927971550463</v>
+        <v>37.87498937427758</v>
       </c>
       <c r="H21">
-        <v>10.62628755616094</v>
+        <v>16.1873842214042</v>
       </c>
       <c r="I21">
-        <v>15.1294498981831</v>
+        <v>24.73863882663115</v>
       </c>
       <c r="J21">
-        <v>4.685934920528352</v>
+        <v>7.932646452724658</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.4122006199508</v>
+        <v>13.04143914586207</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.5134099019765</v>
+        <v>21.90374609115453</v>
       </c>
       <c r="C22">
-        <v>18.33964079635928</v>
+        <v>11.65192244601928</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.532647413599271</v>
+        <v>14.36313427585622</v>
       </c>
       <c r="F22">
-        <v>32.74434137111039</v>
+        <v>38.81366863171551</v>
       </c>
       <c r="G22">
-        <v>37.54678805806349</v>
+        <v>37.93370466302361</v>
       </c>
       <c r="H22">
-        <v>10.72458940758215</v>
+        <v>16.15062393077305</v>
       </c>
       <c r="I22">
-        <v>15.1366940554655</v>
+        <v>24.64497834002962</v>
       </c>
       <c r="J22">
-        <v>4.633898843766093</v>
+        <v>7.918976307130176</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.6740870953292</v>
+        <v>13.08315769053606</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.89082924960039</v>
+        <v>21.66034533703717</v>
       </c>
       <c r="C23">
-        <v>18.02068600610071</v>
+        <v>11.50222137849804</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.509659720981864</v>
+        <v>14.36733467534928</v>
       </c>
       <c r="F23">
-        <v>32.33431465516634</v>
+        <v>38.79719751848327</v>
       </c>
       <c r="G23">
-        <v>36.94686314823237</v>
+        <v>37.90095124933806</v>
       </c>
       <c r="H23">
-        <v>10.67053779783206</v>
+        <v>16.16990393518688</v>
       </c>
       <c r="I23">
-        <v>15.12952422236135</v>
+        <v>24.69439356596698</v>
       </c>
       <c r="J23">
-        <v>4.661644962419817</v>
+        <v>7.926224352361726</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.53470134675006</v>
+        <v>13.0607861060892</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.43928534193195</v>
+        <v>20.71574920857372</v>
       </c>
       <c r="C24">
-        <v>16.77213013812178</v>
+        <v>10.91387386813594</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.427360126336483</v>
+        <v>14.38534726346848</v>
       </c>
       <c r="F24">
-        <v>30.8223198080121</v>
+        <v>38.75505331698324</v>
       </c>
       <c r="G24">
-        <v>34.7513071472968</v>
+        <v>37.80798930420543</v>
       </c>
       <c r="H24">
-        <v>10.4996529354069</v>
+        <v>16.25036390115416</v>
       </c>
       <c r="I24">
-        <v>15.17186650975077</v>
+        <v>24.89409586701311</v>
       </c>
       <c r="J24">
-        <v>4.767404806683855</v>
+        <v>7.954731726290378</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.99848014247508</v>
+        <v>12.9784183425353</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.58888804751041</v>
+        <v>19.6533558746503</v>
       </c>
       <c r="C25">
-        <v>15.33658422695567</v>
+        <v>10.2350858380232</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.348393737335709</v>
+        <v>14.40929504839355</v>
       </c>
       <c r="F25">
-        <v>29.27964372544907</v>
+        <v>38.75280558927003</v>
       </c>
       <c r="G25">
-        <v>32.54722060116914</v>
+        <v>37.77385937728253</v>
       </c>
       <c r="H25">
-        <v>10.38109857612452</v>
+        <v>16.35290704576883</v>
       </c>
       <c r="I25">
-        <v>15.3469009508378</v>
+        <v>25.13606046379489</v>
       </c>
       <c r="J25">
-        <v>4.883485335074324</v>
+        <v>7.987756279948553</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.403926406151092</v>
+        <v>12.89486848136319</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_160/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_160/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.83950662777261</v>
+        <v>24.30698868739325</v>
       </c>
       <c r="C2">
-        <v>9.699123079810191</v>
+        <v>14.20173221032556</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.43083828962585</v>
+        <v>8.298334673490244</v>
       </c>
       <c r="F2">
-        <v>38.78817939157862</v>
+        <v>28.22102443497279</v>
       </c>
       <c r="G2">
-        <v>37.80507229859841</v>
+        <v>31.06696881548308</v>
       </c>
       <c r="H2">
-        <v>16.44182488177383</v>
+        <v>10.34373653461402</v>
       </c>
       <c r="I2">
-        <v>25.3368332873355</v>
+        <v>15.56879859564885</v>
       </c>
       <c r="J2">
-        <v>8.014051268546291</v>
+        <v>4.971201565292869</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.8381308817174</v>
+        <v>8.954385759148312</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.27168214458624</v>
+        <v>22.64347115083433</v>
       </c>
       <c r="C3">
-        <v>9.314517981662007</v>
+        <v>13.38383288394211</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.44789008494764</v>
+        <v>8.269289483478614</v>
       </c>
       <c r="F3">
-        <v>38.83513334338183</v>
+        <v>27.5526091362188</v>
       </c>
       <c r="G3">
-        <v>37.86096500995178</v>
+        <v>30.15344115676945</v>
       </c>
       <c r="H3">
-        <v>16.51038522740477</v>
+        <v>10.34619346127073</v>
       </c>
       <c r="I3">
-        <v>25.48689780785287</v>
+        <v>15.76872170726453</v>
       </c>
       <c r="J3">
-        <v>8.03311775498371</v>
+        <v>5.032286822557311</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.80276705270379</v>
+        <v>8.643810887846499</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.91632557647129</v>
+        <v>21.56345303831425</v>
       </c>
       <c r="C4">
-        <v>9.068318746583692</v>
+        <v>12.85768094740944</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.45957340809967</v>
+        <v>8.253811682297238</v>
       </c>
       <c r="F4">
-        <v>38.8752462922676</v>
+        <v>27.16660534624351</v>
       </c>
       <c r="G4">
-        <v>37.91224727598833</v>
+        <v>29.63673904943668</v>
       </c>
       <c r="H4">
-        <v>16.55655223207637</v>
+        <v>10.3602854797726</v>
       </c>
       <c r="I4">
-        <v>25.58590765777046</v>
+        <v>15.91331927701346</v>
       </c>
       <c r="J4">
-        <v>8.045443115289366</v>
+        <v>5.070674179590116</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.7826101563789</v>
+        <v>8.450782472117869</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.77004374688135</v>
+        <v>21.10847538971651</v>
       </c>
       <c r="C5">
-        <v>8.965550215830758</v>
+        <v>12.63728714402211</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.46464021746733</v>
+        <v>8.248089556882084</v>
       </c>
       <c r="F5">
-        <v>38.89442112168817</v>
+        <v>27.01546535036698</v>
       </c>
       <c r="G5">
-        <v>37.9373823618694</v>
+        <v>29.43725048733277</v>
       </c>
       <c r="H5">
-        <v>16.57638575029594</v>
+        <v>10.36902739961162</v>
       </c>
       <c r="I5">
-        <v>25.62797706989208</v>
+        <v>15.97737598166419</v>
       </c>
       <c r="J5">
-        <v>8.050621851208033</v>
+        <v>5.086548804801951</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.77479249283928</v>
+        <v>8.371634609425659</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.74567152563751</v>
+        <v>21.03202557321004</v>
       </c>
       <c r="C6">
-        <v>8.948340958002149</v>
+        <v>12.60033128167211</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.46550004271552</v>
+        <v>8.247174535246641</v>
       </c>
       <c r="F6">
-        <v>38.89777563676509</v>
+        <v>26.99074096078681</v>
       </c>
       <c r="G6">
-        <v>37.94181103129729</v>
+        <v>29.40479182270728</v>
       </c>
       <c r="H6">
-        <v>16.5797405983105</v>
+        <v>10.37065535449246</v>
       </c>
       <c r="I6">
-        <v>25.63506652027088</v>
+        <v>15.98831242615514</v>
       </c>
       <c r="J6">
-        <v>8.051491217228723</v>
+        <v>5.089199036679413</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.77351845982803</v>
+        <v>8.358465845938573</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.91435842824095</v>
+        <v>21.55737738476671</v>
       </c>
       <c r="C7">
-        <v>9.066942531695938</v>
+        <v>12.85473279013647</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.45964050201226</v>
+        <v>8.253732151804183</v>
       </c>
       <c r="F7">
-        <v>38.87549345103287</v>
+        <v>27.16454206381824</v>
       </c>
       <c r="G7">
-        <v>37.91256914107542</v>
+        <v>29.63400394904417</v>
       </c>
       <c r="H7">
-        <v>16.55681558826062</v>
+        <v>10.3603914488059</v>
       </c>
       <c r="I7">
-        <v>25.58646805492252</v>
+        <v>15.91416284783106</v>
       </c>
       <c r="J7">
-        <v>8.045512324989041</v>
+        <v>5.070887320293627</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.78250311309023</v>
+        <v>8.449716890088474</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.64523827232014</v>
+        <v>23.74549721115574</v>
       </c>
       <c r="C8">
-        <v>9.568645696234393</v>
+        <v>13.92471099010885</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.43646627549446</v>
+        <v>8.287826507404352</v>
       </c>
       <c r="F8">
-        <v>38.80202250125284</v>
+        <v>27.98550841311395</v>
       </c>
       <c r="G8">
-        <v>37.82080717839803</v>
+        <v>30.74279878842895</v>
       </c>
       <c r="H8">
-        <v>16.46461751797581</v>
+        <v>10.34187230570165</v>
       </c>
       <c r="I8">
-        <v>25.38714651358355</v>
+        <v>15.63297375176416</v>
       </c>
       <c r="J8">
-        <v>8.020497353421764</v>
+        <v>4.992087143416589</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.82561744233203</v>
+        <v>8.847840720737411</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.01655544115571</v>
+        <v>27.57711618649862</v>
       </c>
       <c r="C9">
-        <v>10.46949251705491</v>
+        <v>15.83217545382635</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.40062237305043</v>
+        <v>8.37371565185898</v>
       </c>
       <c r="F9">
-        <v>38.74779868166156</v>
+        <v>29.78740826226836</v>
       </c>
       <c r="G9">
-        <v>37.77655931372693</v>
+        <v>33.26763789320496</v>
       </c>
       <c r="H9">
-        <v>16.31627216988151</v>
+        <v>10.41283110421414</v>
       </c>
       <c r="I9">
-        <v>25.05102654293668</v>
+        <v>15.27230829574409</v>
       </c>
       <c r="J9">
-        <v>7.976325986459259</v>
+        <v>4.844067789982512</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.92228456170398</v>
+        <v>9.606195504555883</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.97580124398428</v>
+        <v>30.12061074562672</v>
       </c>
       <c r="C10">
-        <v>11.07711177478106</v>
+        <v>17.11790581385796</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.38010381159231</v>
+        <v>8.448908899453937</v>
       </c>
       <c r="F10">
-        <v>38.76308839701899</v>
+        <v>31.22580646507006</v>
       </c>
       <c r="G10">
-        <v>37.82799855794583</v>
+        <v>35.33434762372787</v>
       </c>
       <c r="H10">
-        <v>16.22727920835938</v>
+        <v>10.5405504709885</v>
       </c>
       <c r="I10">
-        <v>24.83779161832284</v>
+        <v>15.14930448614174</v>
       </c>
       <c r="J10">
-        <v>7.946816182886926</v>
+        <v>4.738567873152462</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.0003689945954</v>
+        <v>10.14537398242636</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.39980876027322</v>
+        <v>31.22068623981999</v>
       </c>
       <c r="C11">
-        <v>11.34116513756179</v>
+        <v>17.67819689022252</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.37202427645658</v>
+        <v>8.485856188164362</v>
       </c>
       <c r="F11">
-        <v>38.78205585810753</v>
+        <v>31.90459149132542</v>
       </c>
       <c r="G11">
-        <v>37.86980017860772</v>
+        <v>36.32003872182131</v>
       </c>
       <c r="H11">
-        <v>16.19118044681542</v>
+        <v>10.61724231097786</v>
       </c>
       <c r="I11">
-        <v>24.74818069610386</v>
+        <v>15.13018503693655</v>
       </c>
       <c r="J11">
-        <v>7.93402325517472</v>
+        <v>4.691106684828125</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.03735031648044</v>
+        <v>10.38606327448114</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.55845483238572</v>
+        <v>31.62923342437628</v>
       </c>
       <c r="C12">
-        <v>11.43933880733508</v>
+        <v>17.88688890930576</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.36914447402175</v>
+        <v>8.500251527165927</v>
       </c>
       <c r="F12">
-        <v>38.7909661035754</v>
+        <v>32.16512435862067</v>
       </c>
       <c r="G12">
-        <v>37.88828251761252</v>
+        <v>36.69982717242946</v>
       </c>
       <c r="H12">
-        <v>16.17814489077865</v>
+        <v>10.6491344150155</v>
       </c>
       <c r="I12">
-        <v>24.71531669199151</v>
+        <v>15.12876458690805</v>
       </c>
       <c r="J12">
-        <v>7.929269131832976</v>
+        <v>4.67319530531911</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.05155737182338</v>
+        <v>10.47650366258367</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.52437485563659</v>
+        <v>31.54159976036643</v>
       </c>
       <c r="C13">
-        <v>11.41827677212765</v>
+        <v>17.84209693856872</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.36975670736636</v>
+        <v>8.497133087079424</v>
       </c>
       <c r="F13">
-        <v>38.78897029704609</v>
+        <v>32.10885878028898</v>
       </c>
       <c r="G13">
-        <v>37.88418396418582</v>
+        <v>36.61774241706082</v>
       </c>
       <c r="H13">
-        <v>16.18092406278949</v>
+        <v>10.64213628969062</v>
       </c>
       <c r="I13">
-        <v>24.7223468559103</v>
+        <v>15.12880318536754</v>
       </c>
       <c r="J13">
-        <v>7.930289009833673</v>
+        <v>4.677050378027417</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.0484887117658</v>
+        <v>10.45705757473319</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.4128998207766</v>
+        <v>31.2544575623081</v>
       </c>
       <c r="C14">
-        <v>11.34927858322717</v>
+        <v>17.69543542301123</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.3717837548278</v>
+        <v>8.487032339969003</v>
       </c>
       <c r="F14">
-        <v>38.78275428838749</v>
+        <v>31.92595576281804</v>
       </c>
       <c r="G14">
-        <v>37.87126753962335</v>
+        <v>36.35115326140285</v>
       </c>
       <c r="H14">
-        <v>16.1900952708991</v>
+        <v>10.61980795279815</v>
       </c>
       <c r="I14">
-        <v>24.74545547598927</v>
+        <v>15.12994849047392</v>
       </c>
       <c r="J14">
-        <v>7.933630324012266</v>
+        <v>4.689631971186393</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.03851511114527</v>
+        <v>10.39351817001758</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.34436469184922</v>
+        <v>31.07753433552979</v>
       </c>
       <c r="C15">
-        <v>11.30677739154523</v>
+        <v>17.60515006716402</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.37304876824004</v>
+        <v>8.480898292120932</v>
       </c>
       <c r="F15">
-        <v>38.77917177865104</v>
+        <v>31.81437678564104</v>
       </c>
       <c r="G15">
-        <v>37.86370147547723</v>
+        <v>36.18871007036603</v>
       </c>
       <c r="H15">
-        <v>16.19579561087152</v>
+        <v>10.60650767018408</v>
       </c>
       <c r="I15">
-        <v>24.75974968856881</v>
+        <v>15.13142370324124</v>
       </c>
       <c r="J15">
-        <v>7.935688718200347</v>
+        <v>4.697346049489007</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.03243222276537</v>
+        <v>10.3545057262669</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.94783043377668</v>
+        <v>30.0475856593132</v>
       </c>
       <c r="C16">
-        <v>11.05960299417577</v>
+        <v>17.08079922917005</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.38065701607261</v>
+        <v>8.446550305308435</v>
       </c>
       <c r="F16">
-        <v>38.7620906137881</v>
+        <v>31.18193569287543</v>
       </c>
       <c r="G16">
-        <v>37.82563770250306</v>
+        <v>35.27084411976213</v>
       </c>
       <c r="H16">
-        <v>16.22972689950048</v>
+        <v>10.53592775311934</v>
       </c>
       <c r="I16">
-        <v>24.84379721227906</v>
+        <v>15.15133952180192</v>
       </c>
       <c r="J16">
-        <v>7.94766489081448</v>
+        <v>4.741678987228453</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.99798097413437</v>
+        <v>10.12954808070132</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.70130046405679</v>
+        <v>29.40126759592133</v>
       </c>
       <c r="C17">
-        <v>10.90477372166385</v>
+        <v>16.75286457329255</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.3856452700765</v>
+        <v>8.426187910278827</v>
       </c>
       <c r="F17">
-        <v>38.75468927350362</v>
+        <v>30.80019189059378</v>
       </c>
       <c r="G17">
-        <v>37.80700625132049</v>
+        <v>34.71939998141554</v>
       </c>
       <c r="H17">
-        <v>16.25166834030726</v>
+        <v>10.49751736619177</v>
       </c>
       <c r="I17">
-        <v>24.89725547292985</v>
+        <v>15.17335823586117</v>
       </c>
       <c r="J17">
-        <v>7.955173208167174</v>
+        <v>4.769001398136981</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.97721539735589</v>
+        <v>9.990334518520941</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.5583470924232</v>
+        <v>29.02414950714881</v>
       </c>
       <c r="C18">
-        <v>10.81455903941802</v>
+        <v>16.5619258306535</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.38863249718666</v>
+        <v>8.414733397544092</v>
       </c>
       <c r="F18">
-        <v>38.75156294466295</v>
+        <v>30.58292469082991</v>
       </c>
       <c r="G18">
-        <v>37.79802186814121</v>
+        <v>34.40650913401515</v>
       </c>
       <c r="H18">
-        <v>16.26470095320885</v>
+        <v>10.47716414057239</v>
       </c>
       <c r="I18">
-        <v>24.9286984765677</v>
+        <v>15.18945747780401</v>
       </c>
       <c r="J18">
-        <v>7.959551237034238</v>
+        <v>4.784767511998946</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.9654094717428</v>
+        <v>9.909832857366208</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.50975150462707</v>
+        <v>28.89553611680473</v>
       </c>
       <c r="C19">
-        <v>10.78381585271293</v>
+        <v>16.49687736294979</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.38966422692511</v>
+        <v>8.410899015408679</v>
       </c>
       <c r="F19">
-        <v>38.75069858674074</v>
+        <v>30.50975817083106</v>
       </c>
       <c r="G19">
-        <v>37.79527708730294</v>
+        <v>34.30130687726861</v>
       </c>
       <c r="H19">
-        <v>16.26918429948992</v>
+        <v>10.47056622062326</v>
       </c>
       <c r="I19">
-        <v>24.93946373403946</v>
+        <v>15.19548265907148</v>
       </c>
       <c r="J19">
-        <v>7.961043786810171</v>
+        <v>4.790114849401834</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.96143607814768</v>
+        <v>9.882504098433898</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.7276646823406</v>
+        <v>29.47062418285187</v>
       </c>
       <c r="C20">
-        <v>10.92137603575007</v>
+        <v>16.78801345148123</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.38510204208537</v>
+        <v>8.428328812909067</v>
       </c>
       <c r="F20">
-        <v>38.75536012496088</v>
+        <v>30.84059119629967</v>
       </c>
       <c r="G20">
-        <v>37.80881028852183</v>
+        <v>34.77765891296828</v>
       </c>
       <c r="H20">
-        <v>16.24928991939861</v>
+        <v>10.50142490869601</v>
       </c>
       <c r="I20">
-        <v>24.89149274701571</v>
+        <v>15.17065509750752</v>
       </c>
       <c r="J20">
-        <v>7.954367786400454</v>
+        <v>4.766087710674773</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.97941170754887</v>
+        <v>10.00519886631641</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.4456957878715</v>
+        <v>31.33901468198331</v>
       </c>
       <c r="C21">
-        <v>11.3695946469766</v>
+        <v>17.73860731497226</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.37118348892337</v>
+        <v>8.489988120007832</v>
       </c>
       <c r="F21">
-        <v>38.78453319806962</v>
+        <v>31.97958412463017</v>
       </c>
       <c r="G21">
-        <v>37.87498937427758</v>
+        <v>36.42927971550468</v>
       </c>
       <c r="H21">
-        <v>16.1873842214042</v>
+        <v>10.62628755616093</v>
       </c>
       <c r="I21">
-        <v>24.73863882663115</v>
+        <v>15.12944989818303</v>
       </c>
       <c r="J21">
-        <v>7.932646452724658</v>
+        <v>4.685934920528183</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.04143914586207</v>
+        <v>10.41220061995073</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.90374609115453</v>
+        <v>32.51340990197642</v>
       </c>
       <c r="C22">
-        <v>11.65192244601928</v>
+        <v>18.33964079635928</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.36313427585622</v>
+        <v>8.532647413599234</v>
       </c>
       <c r="F22">
-        <v>38.81366863171551</v>
+        <v>32.74434137111049</v>
       </c>
       <c r="G22">
-        <v>37.93370466302361</v>
+        <v>37.54678805806353</v>
       </c>
       <c r="H22">
-        <v>16.15062393077305</v>
+        <v>10.72458940758225</v>
       </c>
       <c r="I22">
-        <v>24.64497834002962</v>
+        <v>15.13669405546573</v>
       </c>
       <c r="J22">
-        <v>7.918976307130176</v>
+        <v>4.633898843766121</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.08315769053606</v>
+        <v>10.67408709532917</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.66034533703717</v>
+        <v>31.89082924960045</v>
       </c>
       <c r="C23">
-        <v>11.50222137849804</v>
+        <v>18.02068600610056</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.36733467534928</v>
+        <v>8.509659720981768</v>
       </c>
       <c r="F23">
-        <v>38.79719751848327</v>
+        <v>32.33431465516632</v>
       </c>
       <c r="G23">
-        <v>37.90095124933806</v>
+        <v>36.9468631482324</v>
       </c>
       <c r="H23">
-        <v>16.16990393518688</v>
+        <v>10.67053779783202</v>
       </c>
       <c r="I23">
-        <v>24.69439356596698</v>
+        <v>15.1295242223613</v>
       </c>
       <c r="J23">
-        <v>7.926224352361726</v>
+        <v>4.661644962419783</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.0607861060892</v>
+        <v>10.53470134675006</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.71574920857372</v>
+        <v>29.43928534193196</v>
       </c>
       <c r="C24">
-        <v>10.91387386813594</v>
+        <v>16.77213013812166</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.38534726346848</v>
+        <v>8.427360126336419</v>
       </c>
       <c r="F24">
-        <v>38.75505331698324</v>
+        <v>30.82231980801208</v>
       </c>
       <c r="G24">
-        <v>37.80798930420543</v>
+        <v>34.75130714729693</v>
       </c>
       <c r="H24">
-        <v>16.25036390115416</v>
+        <v>10.49965293540683</v>
       </c>
       <c r="I24">
-        <v>24.89409586701311</v>
+        <v>15.17186650975073</v>
       </c>
       <c r="J24">
-        <v>7.954731726290378</v>
+        <v>4.767404806683852</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.9784183425353</v>
+        <v>9.998480142475039</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.6533558746503</v>
+        <v>26.58888804751038</v>
       </c>
       <c r="C25">
-        <v>10.2350858380232</v>
+        <v>15.33658422695568</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.40929504839355</v>
+        <v>8.348393737335758</v>
       </c>
       <c r="F25">
-        <v>38.75280558927003</v>
+        <v>29.27964372544913</v>
       </c>
       <c r="G25">
-        <v>37.77385937728253</v>
+        <v>32.54722060116924</v>
       </c>
       <c r="H25">
-        <v>16.35290704576883</v>
+        <v>10.38109857612453</v>
       </c>
       <c r="I25">
-        <v>25.13606046379489</v>
+        <v>15.34690095083787</v>
       </c>
       <c r="J25">
-        <v>7.987756279948553</v>
+        <v>4.88348533507432</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.89486848136319</v>
+        <v>9.403926406151108</v>
       </c>
       <c r="M25">
         <v>0</v>
